--- a/InPut/SiouxFallsNetwork/LinkFailure.xlsx
+++ b/InPut/SiouxFallsNetwork/LinkFailure.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitCodes\LinJuanJuan\InPut\SiouxFallsNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CB73FC-880F-4366-B6AA-F7E6BC1B9749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70EF34D-0041-4A7E-A238-8644C2C4AFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data2" sheetId="5" r:id="rId1"/>
+    <sheet name="Data1" sheetId="2" r:id="rId2"/>
+    <sheet name="LinkData" sheetId="3" r:id="rId3"/>
+    <sheet name="onePeriod" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>Link Num</t>
   </si>
@@ -49,6 +52,15 @@
   </si>
   <si>
     <t>res,1</t>
+  </si>
+  <si>
+    <t>t0</t>
+  </si>
+  <si>
+    <t>res,3</t>
+  </si>
+  <si>
+    <t>res,2</t>
   </si>
 </sst>
 </file>
@@ -365,10 +377,2297 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95487D51-AAB0-411A-8FF1-2E07E94812F4}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <f>A2-1</f>
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G11" si="0">B2&amp;","&amp;C2&amp;","&amp;D2</f>
+        <v>6,1,1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <f>A3-1</f>
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>22,2,1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <f>A4-1</f>
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>26,2,1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <f>A5-1</f>
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>27,3,1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <f>A6-1</f>
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>34,1,1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <f>A7-1</f>
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>38,1,1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <f>A8-1</f>
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>42,3,1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <f>A9-1</f>
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>55,1,1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <f>A10-1</f>
+        <v>59</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>59,1,1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>74</v>
+      </c>
+      <c r="B11">
+        <f>A11-1</f>
+        <v>73</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>73,1,1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F496F2B-A6C7-4730-ABA6-469F951ADDC7}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <f>A2-1</f>
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G11" si="0">B2&amp;","&amp;C2&amp;","&amp;D2</f>
+        <v>6,2,1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <f>A3-1</f>
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>22,3,1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <f>A4-1</f>
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>26,3,1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <f>A5-1</f>
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>27,4,1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <f>A6-1</f>
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>34,2,1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <f>A7-1</f>
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>38,2,1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <f>A8-1</f>
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>42,4,1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <f>A9-1</f>
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>55,2,1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <f>A10-1</f>
+        <v>59</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>59,2,1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>74</v>
+      </c>
+      <c r="B11">
+        <f>A11-1</f>
+        <v>73</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>73,2,1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E12">
+    <sortCondition ref="B2:B12"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCA0F8A-B745-4D26-87EA-231CB07DF596}">
+  <dimension ref="A1:G76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>6</v>
+      </c>
+      <c r="E1">
+        <v>25900.200639999999</v>
+      </c>
+      <c r="F1">
+        <v>0.15</v>
+      </c>
+      <c r="G1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>23403.473190000001</v>
+      </c>
+      <c r="F2">
+        <v>0.15</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>25900.200639999999</v>
+      </c>
+      <c r="F3">
+        <v>0.15</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>4958.1809279999998</v>
+      </c>
+      <c r="F4">
+        <v>0.15</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>23403.473190000001</v>
+      </c>
+      <c r="F5">
+        <v>0.15</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>17110.523720000001</v>
+      </c>
+      <c r="F6">
+        <v>0.15</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>23403.473190000001</v>
+      </c>
+      <c r="F7">
+        <v>0.15</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>17110.523720000001</v>
+      </c>
+      <c r="F8">
+        <v>0.15</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>17782.794099999999</v>
+      </c>
+      <c r="F9">
+        <v>0.15</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>4908.8267299999998</v>
+      </c>
+      <c r="F10">
+        <v>0.15</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>17782.794099999999</v>
+      </c>
+      <c r="F11">
+        <v>0.15</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>4947.9954690000004</v>
+      </c>
+      <c r="F12">
+        <v>0.15</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>10000</v>
+      </c>
+      <c r="F13">
+        <v>0.15</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>4958.1809279999998</v>
+      </c>
+      <c r="F14">
+        <v>0.15</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>4947.9954690000004</v>
+      </c>
+      <c r="F15">
+        <v>0.15</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>4898.5876459999999</v>
+      </c>
+      <c r="F16">
+        <v>0.15</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>7841.81131</v>
+      </c>
+      <c r="F17">
+        <v>0.15</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>23403.473190000001</v>
+      </c>
+      <c r="F18">
+        <v>0.15</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>4898.5876459999999</v>
+      </c>
+      <c r="F19">
+        <v>0.15</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>7841.81131</v>
+      </c>
+      <c r="F20">
+        <v>0.15</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>5050.1931560000003</v>
+      </c>
+      <c r="F21">
+        <v>0.15</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>5045.8225830000001</v>
+      </c>
+      <c r="F22">
+        <v>0.15</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>10000</v>
+      </c>
+      <c r="F23">
+        <v>0.15</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>5050.1931560000003</v>
+      </c>
+      <c r="F24">
+        <v>0.15</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>13915.788420000001</v>
+      </c>
+      <c r="F25">
+        <v>0.15</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>13915.788420000001</v>
+      </c>
+      <c r="F26">
+        <v>0.15</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>10000</v>
+      </c>
+      <c r="F27">
+        <v>0.15</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>13512.001550000001</v>
+      </c>
+      <c r="F28">
+        <v>0.15</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>4854.9177170000003</v>
+      </c>
+      <c r="F29">
+        <v>0.15</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>4993.5106939999996</v>
+      </c>
+      <c r="F30">
+        <v>0.15</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>4908.8267299999998</v>
+      </c>
+      <c r="F31">
+        <v>0.15</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>10000</v>
+      </c>
+      <c r="F32">
+        <v>0.15</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>4908.8267299999998</v>
+      </c>
+      <c r="F33">
+        <v>0.15</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>13</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>4876.5082869999997</v>
+      </c>
+      <c r="F34">
+        <v>0.15</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>23403.473190000001</v>
+      </c>
+      <c r="F35">
+        <v>0.15</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>4908.8267299999998</v>
+      </c>
+      <c r="F36">
+        <v>0.15</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>25900.200639999999</v>
+      </c>
+      <c r="F37">
+        <v>0.15</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>25900.200639999999</v>
+      </c>
+      <c r="F38">
+        <v>0.15</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>23</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>5091.2561519999999</v>
+      </c>
+      <c r="F39">
+        <v>0.15</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>4876.5082869999997</v>
+      </c>
+      <c r="F40">
+        <v>0.15</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>5127.5261190000001</v>
+      </c>
+      <c r="F41">
+        <v>0.15</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <v>22</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>4924.7906050000001</v>
+      </c>
+      <c r="F42">
+        <v>0.15</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>14</v>
+      </c>
+      <c r="C43">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>13512.001550000001</v>
+      </c>
+      <c r="F43">
+        <v>0.15</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>14</v>
+      </c>
+      <c r="C44">
+        <v>13</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>5127.5261190000001</v>
+      </c>
+      <c r="F44">
+        <v>0.15</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>14</v>
+      </c>
+      <c r="C45">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>14564.75315</v>
+      </c>
+      <c r="F45">
+        <v>0.15</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>14</v>
+      </c>
+      <c r="C46">
+        <v>21</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>9599.1805650000006</v>
+      </c>
+      <c r="F46">
+        <v>0.15</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>15</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>5045.8225830000001</v>
+      </c>
+      <c r="F47">
+        <v>0.15</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <v>9</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>4854.9177170000003</v>
+      </c>
+      <c r="F48">
+        <v>0.15</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <v>16</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>5229.9100630000003</v>
+      </c>
+      <c r="F49">
+        <v>0.15</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>15</v>
+      </c>
+      <c r="C50">
+        <v>17</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>19679.896710000001</v>
+      </c>
+      <c r="F50">
+        <v>0.15</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>16</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
+      </c>
+      <c r="E51">
+        <v>4993.5106939999996</v>
+      </c>
+      <c r="F51">
+        <v>0.15</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>5229.9100630000003</v>
+      </c>
+      <c r="F52">
+        <v>0.15</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>16</v>
+      </c>
+      <c r="C53">
+        <v>18</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>4823.9508310000001</v>
+      </c>
+      <c r="F53">
+        <v>0.15</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>17</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>23403.473190000001</v>
+      </c>
+      <c r="F54">
+        <v>0.15</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>17</v>
+      </c>
+      <c r="C55">
+        <v>15</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>19679.896710000001</v>
+      </c>
+      <c r="F55">
+        <v>0.15</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>17</v>
+      </c>
+      <c r="C56">
+        <v>19</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>23403.473190000001</v>
+      </c>
+      <c r="F56">
+        <v>0.15</v>
+      </c>
+      <c r="G56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>18</v>
+      </c>
+      <c r="C57">
+        <v>14</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>14564.75315</v>
+      </c>
+      <c r="F57">
+        <v>0.15</v>
+      </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <v>16</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>4823.9508310000001</v>
+      </c>
+      <c r="F58">
+        <v>0.15</v>
+      </c>
+      <c r="G58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>18</v>
+      </c>
+      <c r="C59">
+        <v>19</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>5002.6075629999996</v>
+      </c>
+      <c r="F59">
+        <v>0.15</v>
+      </c>
+      <c r="G59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>19</v>
+      </c>
+      <c r="C60">
+        <v>17</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>23403.473190000001</v>
+      </c>
+      <c r="F60">
+        <v>0.15</v>
+      </c>
+      <c r="G60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>19</v>
+      </c>
+      <c r="C61">
+        <v>18</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>5002.6075629999996</v>
+      </c>
+      <c r="F61">
+        <v>0.15</v>
+      </c>
+      <c r="G61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>19</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <v>6</v>
+      </c>
+      <c r="E62">
+        <v>5059.9123399999999</v>
+      </c>
+      <c r="F62">
+        <v>0.15</v>
+      </c>
+      <c r="G62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>19</v>
+      </c>
+      <c r="C63">
+        <v>21</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>5075.697193</v>
+      </c>
+      <c r="F63">
+        <v>0.15</v>
+      </c>
+      <c r="G63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>20</v>
+      </c>
+      <c r="C64">
+        <v>19</v>
+      </c>
+      <c r="D64">
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <v>5059.9123399999999</v>
+      </c>
+      <c r="F64">
+        <v>0.15</v>
+      </c>
+      <c r="G64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>20</v>
+      </c>
+      <c r="C65">
+        <v>21</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>5229.9100630000003</v>
+      </c>
+      <c r="F65">
+        <v>0.15</v>
+      </c>
+      <c r="G65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>20</v>
+      </c>
+      <c r="C66">
+        <v>23</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>4885.3575639999999</v>
+      </c>
+      <c r="F66">
+        <v>0.15</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>21</v>
+      </c>
+      <c r="C67">
+        <v>14</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>9599.1805650000006</v>
+      </c>
+      <c r="F67">
+        <v>0.15</v>
+      </c>
+      <c r="G67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>21</v>
+      </c>
+      <c r="C68">
+        <v>19</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>5075.697193</v>
+      </c>
+      <c r="F68">
+        <v>0.15</v>
+      </c>
+      <c r="G68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>21</v>
+      </c>
+      <c r="C69">
+        <v>20</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>5229.9100630000003</v>
+      </c>
+      <c r="F69">
+        <v>0.15</v>
+      </c>
+      <c r="G69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>21</v>
+      </c>
+      <c r="C70">
+        <v>22</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>5000</v>
+      </c>
+      <c r="F70">
+        <v>0.15</v>
+      </c>
+      <c r="G70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>22</v>
+      </c>
+      <c r="C71">
+        <v>13</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71">
+        <v>4924.7906050000001</v>
+      </c>
+      <c r="F71">
+        <v>0.15</v>
+      </c>
+      <c r="G71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>22</v>
+      </c>
+      <c r="C72">
+        <v>21</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>5000</v>
+      </c>
+      <c r="F72">
+        <v>0.15</v>
+      </c>
+      <c r="G72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>22</v>
+      </c>
+      <c r="C73">
+        <v>23</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>5078.5084360000001</v>
+      </c>
+      <c r="F73">
+        <v>0.15</v>
+      </c>
+      <c r="G73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>23</v>
+      </c>
+      <c r="C74">
+        <v>12</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <v>5091.2561519999999</v>
+      </c>
+      <c r="F74">
+        <v>0.15</v>
+      </c>
+      <c r="G74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>23</v>
+      </c>
+      <c r="C75">
+        <v>20</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>4885.3575639999999</v>
+      </c>
+      <c r="F75">
+        <v>0.15</v>
+      </c>
+      <c r="G75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>23</v>
+      </c>
+      <c r="C76">
+        <v>22</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>5078.5084360000001</v>
+      </c>
+      <c r="F76">
+        <v>0.15</v>
+      </c>
+      <c r="G76">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G12"/>
     </sheetView>
   </sheetViews>
@@ -406,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="str">
-        <f>B2&amp;","&amp;C2&amp;","&amp;D2</f>
+        <f t="shared" ref="G2:G11" si="0">B2&amp;","&amp;C2&amp;","&amp;D2</f>
         <v>42,1,1</v>
       </c>
     </row>
@@ -415,7 +2714,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B11" si="0">A3-1</f>
+        <f t="shared" ref="B3:B11" si="1">A3-1</f>
         <v>59</v>
       </c>
       <c r="C3">
@@ -425,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="str">
-        <f>B3&amp;","&amp;C3&amp;","&amp;D3</f>
+        <f t="shared" si="0"/>
         <v>59,1,1</v>
       </c>
     </row>
@@ -434,17 +2733,17 @@
         <v>28</v>
       </c>
       <c r="B4">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="str">
-        <f>B4&amp;","&amp;C4&amp;","&amp;D4</f>
         <v>27,1,1</v>
       </c>
     </row>
@@ -453,17 +2752,17 @@
         <v>56</v>
       </c>
       <c r="B5">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="str">
-        <f>B5&amp;","&amp;C5&amp;","&amp;D5</f>
         <v>55,1,1</v>
       </c>
     </row>
@@ -472,17 +2771,17 @@
         <v>7</v>
       </c>
       <c r="B6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="str">
-        <f>B6&amp;","&amp;C6&amp;","&amp;D6</f>
         <v>6,1,1</v>
       </c>
     </row>
@@ -491,17 +2790,17 @@
         <v>74</v>
       </c>
       <c r="B7">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="str">
-        <f>B7&amp;","&amp;C7&amp;","&amp;D7</f>
         <v>73,1,1</v>
       </c>
     </row>
@@ -510,17 +2809,17 @@
         <v>35</v>
       </c>
       <c r="B8">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="str">
-        <f>B8&amp;","&amp;C8&amp;","&amp;D8</f>
         <v>34,1,1</v>
       </c>
     </row>
@@ -529,17 +2828,17 @@
         <v>39</v>
       </c>
       <c r="B9">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="str">
-        <f>B9&amp;","&amp;C9&amp;","&amp;D9</f>
         <v>38,1,1</v>
       </c>
     </row>
@@ -548,17 +2847,17 @@
         <v>23</v>
       </c>
       <c r="B10">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="str">
-        <f>B10&amp;","&amp;C10&amp;","&amp;D10</f>
         <v>22,1,1</v>
       </c>
     </row>
@@ -567,17 +2866,17 @@
         <v>27</v>
       </c>
       <c r="B11">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="str">
-        <f>B11&amp;","&amp;C11&amp;","&amp;D11</f>
         <v>26,1,1</v>
       </c>
     </row>

--- a/InPut/SiouxFallsNetwork/LinkFailure.xlsx
+++ b/InPut/SiouxFallsNetwork/LinkFailure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitCodes\LinJuanJuan\InPut\SiouxFallsNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70EF34D-0041-4A7E-A238-8644C2C4AFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6844741-EA6B-40EA-9F32-DF84B768285D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,8 +380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95487D51-AAB0-411A-8FF1-2E07E94812F4}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,7 +413,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <f>A2-1</f>
+        <f t="shared" ref="B2:B11" si="0">A2-1</f>
         <v>6</v>
       </c>
       <c r="C2">
@@ -426,7 +426,7 @@
         <v>4</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G11" si="0">B2&amp;","&amp;C2&amp;","&amp;D2</f>
+        <f t="shared" ref="G2:G11" si="1">B2&amp;","&amp;C2&amp;","&amp;D2</f>
         <v>6,1,1</v>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <f>A3-1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C3">
@@ -448,7 +448,7 @@
         <v>5</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22,2,1</v>
       </c>
     </row>
@@ -457,7 +457,7 @@
         <v>27</v>
       </c>
       <c r="B4">
-        <f>A4-1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C4">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26,2,1</v>
       </c>
     </row>
@@ -479,7 +479,7 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <f>A5-1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C5">
@@ -492,7 +492,7 @@
         <v>6</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27,3,1</v>
       </c>
     </row>
@@ -501,7 +501,7 @@
         <v>35</v>
       </c>
       <c r="B6">
-        <f>A6-1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C6">
@@ -514,7 +514,7 @@
         <v>4</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34,1,1</v>
       </c>
     </row>
@@ -523,7 +523,7 @@
         <v>39</v>
       </c>
       <c r="B7">
-        <f>A7-1</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C7">
@@ -536,7 +536,7 @@
         <v>4</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38,1,1</v>
       </c>
     </row>
@@ -545,7 +545,7 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <f>A8-1</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C8">
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42,3,1</v>
       </c>
     </row>
@@ -567,7 +567,7 @@
         <v>56</v>
       </c>
       <c r="B9">
-        <f>A9-1</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="C9">
@@ -580,7 +580,7 @@
         <v>4</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55,1,1</v>
       </c>
     </row>
@@ -589,11 +589,11 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <f>A10-1</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -602,8 +602,8 @@
         <v>4</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>59,1,1</v>
+        <f t="shared" si="1"/>
+        <v>59,2,1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -611,7 +611,7 @@
         <v>74</v>
       </c>
       <c r="B11">
-        <f>A11-1</f>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="C11">
@@ -624,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73,1,1</v>
       </c>
     </row>
@@ -675,7 +675,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <f>A2-1</f>
+        <f t="shared" ref="B2:B11" si="0">A2-1</f>
         <v>6</v>
       </c>
       <c r="C2">
@@ -688,7 +688,7 @@
         <v>4</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G11" si="0">B2&amp;","&amp;C2&amp;","&amp;D2</f>
+        <f t="shared" ref="G2:G11" si="1">B2&amp;","&amp;C2&amp;","&amp;D2</f>
         <v>6,2,1</v>
       </c>
     </row>
@@ -697,7 +697,7 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <f>A3-1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C3">
@@ -710,7 +710,7 @@
         <v>5</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22,3,1</v>
       </c>
     </row>
@@ -719,7 +719,7 @@
         <v>27</v>
       </c>
       <c r="B4">
-        <f>A4-1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C4">
@@ -732,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26,3,1</v>
       </c>
     </row>
@@ -741,7 +741,7 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <f>A5-1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C5">
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27,4,1</v>
       </c>
     </row>
@@ -763,7 +763,7 @@
         <v>35</v>
       </c>
       <c r="B6">
-        <f>A6-1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C6">
@@ -776,7 +776,7 @@
         <v>4</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34,2,1</v>
       </c>
     </row>
@@ -785,7 +785,7 @@
         <v>39</v>
       </c>
       <c r="B7">
-        <f>A7-1</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C7">
@@ -798,7 +798,7 @@
         <v>4</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38,2,1</v>
       </c>
     </row>
@@ -807,7 +807,7 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <f>A8-1</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C8">
@@ -820,7 +820,7 @@
         <v>6</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42,4,1</v>
       </c>
     </row>
@@ -829,7 +829,7 @@
         <v>56</v>
       </c>
       <c r="B9">
-        <f>A9-1</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="C9">
@@ -842,7 +842,7 @@
         <v>4</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55,2,1</v>
       </c>
     </row>
@@ -851,7 +851,7 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <f>A10-1</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="C10">
@@ -864,7 +864,7 @@
         <v>4</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59,2,1</v>
       </c>
     </row>
@@ -873,7 +873,7 @@
         <v>74</v>
       </c>
       <c r="B11">
-        <f>A11-1</f>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="C11">
@@ -886,7 +886,7 @@
         <v>4</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73,2,1</v>
       </c>
     </row>

--- a/InPut/SiouxFallsNetwork/LinkFailure.xlsx
+++ b/InPut/SiouxFallsNetwork/LinkFailure.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitCodes\LinJuanJuan\InPut\SiouxFallsNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6844741-EA6B-40EA-9F32-DF84B768285D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C475E6-138F-4DA5-9922-90CCCDA3CCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data2" sheetId="5" r:id="rId1"/>
-    <sheet name="Data1" sheetId="2" r:id="rId2"/>
-    <sheet name="LinkData" sheetId="3" r:id="rId3"/>
-    <sheet name="onePeriod" sheetId="1" r:id="rId4"/>
+    <sheet name="Data2" sheetId="7" r:id="rId1"/>
+    <sheet name="Data1" sheetId="5" r:id="rId2"/>
+    <sheet name="Data0" sheetId="2" r:id="rId3"/>
+    <sheet name="LinkData" sheetId="3" r:id="rId4"/>
+    <sheet name="onePeriod" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>Link Num</t>
   </si>
@@ -377,21 +378,330 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD249B8-30EF-4031-884E-3F0B1C7A15E2}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>A2-1</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G13" si="0">B2&amp;","&amp;C2&amp;","&amp;D2</f>
+        <v>0,3,1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <f>A3-1</f>
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>6,1,1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <f>A4-1</f>
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>19,2,1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <f>A5-1</f>
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>22,2,1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <f>A6-1</f>
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>26,2,1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <f>A7-1</f>
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>27,3,1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <f>A8-1</f>
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>34,1,1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <f>A9-1</f>
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>38,1,1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <f>A10-1</f>
+        <v>42</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>42,3,1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>56</v>
+      </c>
+      <c r="B11">
+        <f>A11-1</f>
+        <v>55</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>55,1,1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <f>A12-1</f>
+        <v>59</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>59,2,1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>74</v>
+      </c>
+      <c r="B13">
+        <f>A13-1</f>
+        <v>73</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>73,1,1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E13">
+    <sortCondition ref="A2:A13"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95487D51-AAB0-411A-8FF1-2E07E94812F4}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -408,7 +718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
@@ -430,7 +740,7 @@
         <v>6,1,1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>23</v>
       </c>
@@ -452,7 +762,7 @@
         <v>22,2,1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>27</v>
       </c>
@@ -474,7 +784,7 @@
         <v>26,2,1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>28</v>
       </c>
@@ -496,7 +806,7 @@
         <v>27,3,1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>35</v>
       </c>
@@ -518,7 +828,7 @@
         <v>34,1,1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>39</v>
       </c>
@@ -540,7 +850,7 @@
         <v>38,1,1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>43</v>
       </c>
@@ -562,7 +872,7 @@
         <v>42,3,1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>56</v>
       </c>
@@ -584,7 +894,7 @@
         <v>55,1,1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>60</v>
       </c>
@@ -606,7 +916,7 @@
         <v>59,2,1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>74</v>
       </c>
@@ -628,7 +938,7 @@
         <v>73,1,1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>7</v>
       </c>
@@ -638,7 +948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F496F2B-A6C7-4730-ABA6-469F951ADDC7}">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -646,14 +956,14 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -670,7 +980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
@@ -692,7 +1002,7 @@
         <v>6,2,1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>23</v>
       </c>
@@ -714,7 +1024,7 @@
         <v>22,3,1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>27</v>
       </c>
@@ -736,7 +1046,7 @@
         <v>26,3,1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>28</v>
       </c>
@@ -758,7 +1068,7 @@
         <v>27,4,1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>35</v>
       </c>
@@ -780,7 +1090,7 @@
         <v>34,2,1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>39</v>
       </c>
@@ -802,7 +1112,7 @@
         <v>38,2,1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>43</v>
       </c>
@@ -824,7 +1134,7 @@
         <v>42,4,1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>56</v>
       </c>
@@ -846,7 +1156,7 @@
         <v>55,2,1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>60</v>
       </c>
@@ -868,7 +1178,7 @@
         <v>59,2,1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>74</v>
       </c>
@@ -890,7 +1200,7 @@
         <v>73,2,1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>6</v>
       </c>
@@ -903,19 +1213,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCA0F8A-B745-4D26-87EA-231CB07DF596}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -936,9 +1246,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -959,9 +1269,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -982,9 +1292,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1005,9 +1315,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1028,9 +1338,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1051,9 +1361,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1074,9 +1384,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1097,9 +1407,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1120,9 +1430,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -1143,9 +1453,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -1166,9 +1476,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -1189,9 +1499,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -1212,9 +1522,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -1235,9 +1545,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -1258,9 +1568,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -1281,9 +1591,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -1304,9 +1614,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -1327,9 +1637,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -1350,9 +1660,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -1373,9 +1683,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>7</v>
@@ -1396,9 +1706,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -1419,9 +1729,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -1442,9 +1752,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -1465,9 +1775,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>8</v>
@@ -1488,9 +1798,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>9</v>
@@ -1511,9 +1821,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>9</v>
@@ -1534,9 +1844,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>9</v>
@@ -1557,9 +1867,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>9</v>
@@ -1580,9 +1890,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>9</v>
@@ -1603,9 +1913,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>10</v>
@@ -1626,9 +1936,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>10</v>
@@ -1649,9 +1959,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>10</v>
@@ -1672,9 +1982,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>10</v>
@@ -1695,9 +2005,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>11</v>
@@ -1718,9 +2028,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>11</v>
@@ -1741,9 +2051,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>11</v>
@@ -1764,9 +2074,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>12</v>
@@ -1787,9 +2097,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>12</v>
@@ -1810,9 +2120,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>13</v>
@@ -1833,9 +2143,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>13</v>
@@ -1856,9 +2166,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>13</v>
@@ -1879,9 +2189,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>14</v>
@@ -1902,9 +2212,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>14</v>
@@ -1925,9 +2235,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>14</v>
@@ -1948,9 +2258,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>14</v>
@@ -1971,9 +2281,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>15</v>
@@ -1994,9 +2304,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>15</v>
@@ -2017,9 +2327,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>15</v>
@@ -2040,9 +2350,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>15</v>
@@ -2063,9 +2373,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>16</v>
@@ -2086,9 +2396,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>16</v>
@@ -2109,9 +2419,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>16</v>
@@ -2132,9 +2442,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>17</v>
@@ -2155,9 +2465,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>17</v>
@@ -2178,9 +2488,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>17</v>
@@ -2201,9 +2511,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>18</v>
@@ -2224,9 +2534,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>18</v>
@@ -2247,9 +2557,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>18</v>
@@ -2270,9 +2580,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>19</v>
@@ -2293,9 +2603,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>19</v>
@@ -2316,9 +2626,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>19</v>
@@ -2339,9 +2649,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>19</v>
@@ -2362,9 +2672,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>20</v>
@@ -2385,9 +2695,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>20</v>
@@ -2408,9 +2718,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>20</v>
@@ -2431,9 +2741,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>21</v>
@@ -2454,9 +2764,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>21</v>
@@ -2477,9 +2787,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>21</v>
@@ -2500,9 +2810,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>21</v>
@@ -2523,9 +2833,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>22</v>
@@ -2546,9 +2856,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>22</v>
@@ -2569,9 +2879,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>22</v>
@@ -2592,9 +2902,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74">
         <v>23</v>
@@ -2615,9 +2925,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>23</v>
@@ -2638,7 +2948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>23</v>
       </c>
@@ -2663,7 +2973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -2671,12 +2981,12 @@
       <selection activeCell="G2" sqref="G2:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2690,7 +3000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>43</v>
       </c>
@@ -2709,7 +3019,7 @@
         <v>42,1,1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>60</v>
       </c>
@@ -2728,7 +3038,7 @@
         <v>59,1,1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>28</v>
       </c>
@@ -2747,7 +3057,7 @@
         <v>27,1,1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>56</v>
       </c>
@@ -2766,7 +3076,7 @@
         <v>55,1,1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -2785,7 +3095,7 @@
         <v>6,1,1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>74</v>
       </c>
@@ -2804,7 +3114,7 @@
         <v>73,1,1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>35</v>
       </c>
@@ -2823,7 +3133,7 @@
         <v>34,1,1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>39</v>
       </c>
@@ -2842,7 +3152,7 @@
         <v>38,1,1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>23</v>
       </c>
@@ -2861,7 +3171,7 @@
         <v>22,1,1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>27</v>
       </c>
@@ -2880,7 +3190,7 @@
         <v>26,1,1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>4</v>
       </c>

--- a/InPut/SiouxFallsNetwork/LinkFailure.xlsx
+++ b/InPut/SiouxFallsNetwork/LinkFailure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitCodes\LinJuanJuan\InPut\SiouxFallsNetwork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\SiouxFallsNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C475E6-138F-4DA5-9922-90CCCDA3CCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A3ED39-0EA7-4036-8CE3-AB4C026DF55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18255" yWindow="1815" windowWidth="29040" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data2" sheetId="7" r:id="rId1"/>
@@ -379,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD249B8-30EF-4031-884E-3F0B1C7A15E2}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,17 +427,17 @@
         <v>6</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G13" si="0">B2&amp;","&amp;C2&amp;","&amp;D2</f>
+        <f t="shared" ref="G2:G17" si="0">B2&amp;","&amp;C2&amp;","&amp;D2</f>
         <v>0,3,1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <f>A3-1</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -450,16 +450,16 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>6,1,1</v>
+        <v>2,1,1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <f>A4-1</f>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -472,16 +472,16 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>19,2,1</v>
+        <v>6,2,1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <f>A5-1</f>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -494,16 +494,16 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>22,2,1</v>
+        <v>12,2,1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <f>A6-1</f>
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -512,20 +512,20 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>26,2,1</v>
+        <v>16,2,1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <f>A7-1</f>
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -534,42 +534,42 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>27,3,1</v>
+        <v>19,3,1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <f>A8-1</f>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>34,1,1</v>
+        <v>22,3,1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <f>A9-1</f>
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -582,16 +582,16 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>38,1,1</v>
+        <v>26,1,1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <f>A10-1</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -604,19 +604,19 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>42,3,1</v>
+        <v>27,3,1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <f>A11-1</f>
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -626,19 +626,19 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>55,1,1</v>
+        <v>29,2,1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <f>A12-1</f>
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -648,39 +648,127 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>59,2,1</v>
+        <v>31,1,1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <f>A13-1</f>
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>73,1,1</v>
+        <v>34,2,1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G14" t="s">
+      <c r="A14">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <f>A14-1</f>
+        <v>42</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>42,1,1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <f>A15-1</f>
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>50,1,1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>56</v>
+      </c>
+      <c r="B16">
+        <f>A16-1</f>
+        <v>55</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>55,3,1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <f>A17-1</f>
+        <v>59</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>59,2,1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E13">
-    <sortCondition ref="A2:A13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E17">
+    <sortCondition ref="A2:A17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1215,52 +1303,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCA0F8A-B745-4D26-87EA-231CB07DF596}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A2:G77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>6</v>
-      </c>
-      <c r="E1">
-        <v>25900.200639999999</v>
-      </c>
-      <c r="F1">
-        <v>0.15</v>
-      </c>
-      <c r="G1">
-        <v>4</v>
-      </c>
-    </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>23403.473190000001</v>
+        <v>25900.200639999999</v>
       </c>
       <c r="F2">
         <v>0.15</v>
@@ -1271,19 +1336,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>25900.200639999999</v>
+        <v>23403.473190000001</v>
       </c>
       <c r="F3">
         <v>0.15</v>
@@ -1294,19 +1359,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>4958.1809279999998</v>
+        <v>25900.200639999999</v>
       </c>
       <c r="F4">
         <v>0.15</v>
@@ -1317,19 +1382,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>23403.473190000001</v>
+        <v>4958.1809279999998</v>
       </c>
       <c r="F5">
         <v>0.15</v>
@@ -1340,19 +1405,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6">
-        <v>17110.523720000001</v>
+        <v>23403.473190000001</v>
       </c>
       <c r="F6">
         <v>0.15</v>
@@ -1363,19 +1428,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7">
-        <v>23403.473190000001</v>
+        <v>17110.523720000001</v>
       </c>
       <c r="F7">
         <v>0.15</v>
@@ -1386,19 +1451,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8">
-        <v>17110.523720000001</v>
+        <v>23403.473190000001</v>
       </c>
       <c r="F8">
         <v>0.15</v>
@@ -1409,19 +1474,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>17782.794099999999</v>
+        <v>17110.523720000001</v>
       </c>
       <c r="F9">
         <v>0.15</v>
@@ -1432,19 +1497,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>4908.8267299999998</v>
+        <v>17782.794099999999</v>
       </c>
       <c r="F10">
         <v>0.15</v>
@@ -1455,19 +1520,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>17782.794099999999</v>
+        <v>4908.8267299999998</v>
       </c>
       <c r="F11">
         <v>0.15</v>
@@ -1478,19 +1543,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>4947.9954690000004</v>
+        <v>17782.794099999999</v>
       </c>
       <c r="F12">
         <v>0.15</v>
@@ -1501,19 +1566,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>10000</v>
+        <v>4947.9954690000004</v>
       </c>
       <c r="F13">
         <v>0.15</v>
@@ -1524,19 +1589,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14">
-        <v>4958.1809279999998</v>
+        <v>10000</v>
       </c>
       <c r="F14">
         <v>0.15</v>
@@ -1547,19 +1612,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>4947.9954690000004</v>
+        <v>4958.1809279999998</v>
       </c>
       <c r="F15">
         <v>0.15</v>
@@ -1570,19 +1635,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>4898.5876459999999</v>
+        <v>4947.9954690000004</v>
       </c>
       <c r="F16">
         <v>0.15</v>
@@ -1593,19 +1658,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>7</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>7841.81131</v>
+        <v>4898.5876459999999</v>
       </c>
       <c r="F17">
         <v>0.15</v>
@@ -1616,19 +1681,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>6</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>23403.473190000001</v>
+        <v>7841.81131</v>
       </c>
       <c r="F18">
         <v>0.15</v>
@@ -1639,19 +1704,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19">
-        <v>4898.5876459999999</v>
+        <v>23403.473190000001</v>
       </c>
       <c r="F19">
         <v>0.15</v>
@@ -1662,19 +1727,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>7</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>7841.81131</v>
+        <v>4898.5876459999999</v>
       </c>
       <c r="F20">
         <v>0.15</v>
@@ -1685,19 +1750,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>7</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>5050.1931560000003</v>
+        <v>7841.81131</v>
       </c>
       <c r="F21">
         <v>0.15</v>
@@ -1708,19 +1773,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>7</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>5045.8225830000001</v>
+        <v>5050.1931560000003</v>
       </c>
       <c r="F22">
         <v>0.15</v>
@@ -1731,19 +1796,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
       <c r="E23">
-        <v>10000</v>
+        <v>5045.8225830000001</v>
       </c>
       <c r="F23">
         <v>0.15</v>
@@ -1754,19 +1819,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>8</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>5050.1931560000003</v>
+        <v>10000</v>
       </c>
       <c r="F24">
         <v>0.15</v>
@@ -1777,19 +1842,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>8</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E25">
-        <v>13915.788420000001</v>
+        <v>5050.1931560000003</v>
       </c>
       <c r="F25">
         <v>0.15</v>
@@ -1800,13 +1865,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
         <v>9</v>
-      </c>
-      <c r="C26">
-        <v>8</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -1823,19 +1888,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>9</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>10000</v>
+        <v>13915.788420000001</v>
       </c>
       <c r="F27">
         <v>0.15</v>
@@ -1846,19 +1911,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>9</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>13512.001550000001</v>
+        <v>10000</v>
       </c>
       <c r="F28">
         <v>0.15</v>
@@ -1869,19 +1934,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>9</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>4854.9177170000003</v>
+        <v>13512.001550000001</v>
       </c>
       <c r="F29">
         <v>0.15</v>
@@ -1892,19 +1957,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>9</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>4993.5106939999996</v>
+        <v>4854.9177170000003</v>
       </c>
       <c r="F30">
         <v>0.15</v>
@@ -1915,19 +1980,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E31">
-        <v>4908.8267299999998</v>
+        <v>4993.5106939999996</v>
       </c>
       <c r="F31">
         <v>0.15</v>
@@ -1938,19 +2003,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>10</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E32">
-        <v>10000</v>
+        <v>4908.8267299999998</v>
       </c>
       <c r="F32">
         <v>0.15</v>
@@ -1961,19 +2026,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>10</v>
       </c>
       <c r="C33">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E33">
-        <v>4908.8267299999998</v>
+        <v>10000</v>
       </c>
       <c r="F33">
         <v>0.15</v>
@@ -1984,19 +2049,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>10</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E34">
-        <v>4876.5082869999997</v>
+        <v>4908.8267299999998</v>
       </c>
       <c r="F34">
         <v>0.15</v>
@@ -2007,19 +2072,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D35">
         <v>4</v>
       </c>
       <c r="E35">
-        <v>23403.473190000001</v>
+        <v>4876.5082869999997</v>
       </c>
       <c r="F35">
         <v>0.15</v>
@@ -2030,19 +2095,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>11</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>4908.8267299999998</v>
+        <v>23403.473190000001</v>
       </c>
       <c r="F36">
         <v>0.15</v>
@@ -2053,19 +2118,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>11</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E37">
-        <v>25900.200639999999</v>
+        <v>4908.8267299999998</v>
       </c>
       <c r="F37">
         <v>0.15</v>
@@ -2076,13 +2141,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38">
         <v>12</v>
-      </c>
-      <c r="C38">
-        <v>11</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -2099,19 +2164,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>12</v>
       </c>
       <c r="C39">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>5091.2561519999999</v>
+        <v>25900.200639999999</v>
       </c>
       <c r="F39">
         <v>0.15</v>
@@ -2122,19 +2187,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D40">
         <v>4</v>
       </c>
       <c r="E40">
-        <v>4876.5082869999997</v>
+        <v>5091.2561519999999</v>
       </c>
       <c r="F40">
         <v>0.15</v>
@@ -2145,19 +2210,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>13</v>
       </c>
       <c r="C41">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>5127.5261190000001</v>
+        <v>4876.5082869999997</v>
       </c>
       <c r="F41">
         <v>0.15</v>
@@ -2168,19 +2233,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>13</v>
       </c>
       <c r="C42">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E42">
-        <v>4924.7906050000001</v>
+        <v>5127.5261190000001</v>
       </c>
       <c r="F42">
         <v>0.15</v>
@@ -2191,19 +2256,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E43">
-        <v>13512.001550000001</v>
+        <v>4924.7906050000001</v>
       </c>
       <c r="F43">
         <v>0.15</v>
@@ -2214,19 +2279,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>14</v>
       </c>
       <c r="C44">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E44">
-        <v>5127.5261190000001</v>
+        <v>13512.001550000001</v>
       </c>
       <c r="F44">
         <v>0.15</v>
@@ -2237,19 +2302,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>14</v>
       </c>
       <c r="C45">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E45">
-        <v>14564.75315</v>
+        <v>5127.5261190000001</v>
       </c>
       <c r="F45">
         <v>0.15</v>
@@ -2260,19 +2325,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>14</v>
       </c>
       <c r="C46">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46">
-        <v>9599.1805650000006</v>
+        <v>14564.75315</v>
       </c>
       <c r="F46">
         <v>0.15</v>
@@ -2283,19 +2348,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>5045.8225830000001</v>
+        <v>9599.1805650000006</v>
       </c>
       <c r="F47">
         <v>0.15</v>
@@ -2306,19 +2371,19 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>15</v>
       </c>
       <c r="C48">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E48">
-        <v>4854.9177170000003</v>
+        <v>5045.8225830000001</v>
       </c>
       <c r="F48">
         <v>0.15</v>
@@ -2329,19 +2394,19 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>15</v>
       </c>
       <c r="C49">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E49">
-        <v>5229.9100630000003</v>
+        <v>4854.9177170000003</v>
       </c>
       <c r="F49">
         <v>0.15</v>
@@ -2352,19 +2417,19 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>15</v>
       </c>
       <c r="C50">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>19679.896710000001</v>
+        <v>5229.9100630000003</v>
       </c>
       <c r="F50">
         <v>0.15</v>
@@ -2375,19 +2440,19 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E51">
-        <v>4993.5106939999996</v>
+        <v>19679.896710000001</v>
       </c>
       <c r="F51">
         <v>0.15</v>
@@ -2398,19 +2463,19 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>16</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E52">
-        <v>5229.9100630000003</v>
+        <v>4993.5106939999996</v>
       </c>
       <c r="F52">
         <v>0.15</v>
@@ -2421,19 +2486,19 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>16</v>
       </c>
       <c r="C53">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
       <c r="E53">
-        <v>4823.9508310000001</v>
+        <v>5229.9100630000003</v>
       </c>
       <c r="F53">
         <v>0.15</v>
@@ -2444,19 +2509,19 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
       <c r="E54">
-        <v>23403.473190000001</v>
+        <v>4823.9508310000001</v>
       </c>
       <c r="F54">
         <v>0.15</v>
@@ -2467,19 +2532,19 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>17</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E55">
-        <v>19679.896710000001</v>
+        <v>23403.473190000001</v>
       </c>
       <c r="F55">
         <v>0.15</v>
@@ -2490,19 +2555,19 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>17</v>
       </c>
       <c r="C56">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E56">
-        <v>23403.473190000001</v>
+        <v>19679.896710000001</v>
       </c>
       <c r="F56">
         <v>0.15</v>
@@ -2513,19 +2578,19 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C57">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E57">
-        <v>14564.75315</v>
+        <v>23403.473190000001</v>
       </c>
       <c r="F57">
         <v>0.15</v>
@@ -2536,19 +2601,19 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>18</v>
       </c>
       <c r="C58">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E58">
-        <v>4823.9508310000001</v>
+        <v>14564.75315</v>
       </c>
       <c r="F58">
         <v>0.15</v>
@@ -2559,19 +2624,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>18</v>
       </c>
       <c r="C59">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E59">
-        <v>5002.6075629999996</v>
+        <v>4823.9508310000001</v>
       </c>
       <c r="F59">
         <v>0.15</v>
@@ -2582,19 +2647,19 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60">
+        <v>18</v>
+      </c>
+      <c r="C60">
         <v>19</v>
       </c>
-      <c r="C60">
-        <v>17</v>
-      </c>
       <c r="D60">
         <v>4</v>
       </c>
       <c r="E60">
-        <v>23403.473190000001</v>
+        <v>5002.6075629999996</v>
       </c>
       <c r="F60">
         <v>0.15</v>
@@ -2605,19 +2670,19 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>19</v>
       </c>
       <c r="C61">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D61">
         <v>4</v>
       </c>
       <c r="E61">
-        <v>5002.6075629999996</v>
+        <v>23403.473190000001</v>
       </c>
       <c r="F61">
         <v>0.15</v>
@@ -2628,19 +2693,19 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>19</v>
       </c>
       <c r="C62">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D62">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E62">
-        <v>5059.9123399999999</v>
+        <v>5002.6075629999996</v>
       </c>
       <c r="F62">
         <v>0.15</v>
@@ -2651,19 +2716,19 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>19</v>
       </c>
       <c r="C63">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E63">
-        <v>5075.697193</v>
+        <v>5059.9123399999999</v>
       </c>
       <c r="F63">
         <v>0.15</v>
@@ -2674,19 +2739,19 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C64">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E64">
-        <v>5059.9123399999999</v>
+        <v>5075.697193</v>
       </c>
       <c r="F64">
         <v>0.15</v>
@@ -2697,19 +2762,19 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>20</v>
       </c>
       <c r="C65">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E65">
-        <v>5229.9100630000003</v>
+        <v>5059.9123399999999</v>
       </c>
       <c r="F65">
         <v>0.15</v>
@@ -2720,19 +2785,19 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>20</v>
       </c>
       <c r="C66">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E66">
-        <v>4885.3575639999999</v>
+        <v>5229.9100630000003</v>
       </c>
       <c r="F66">
         <v>0.15</v>
@@ -2743,19 +2808,19 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C67">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D67">
         <v>3</v>
       </c>
       <c r="E67">
-        <v>9599.1805650000006</v>
+        <v>4885.3575639999999</v>
       </c>
       <c r="F67">
         <v>0.15</v>
@@ -2766,19 +2831,19 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68">
         <v>21</v>
       </c>
       <c r="C68">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E68">
-        <v>5075.697193</v>
+        <v>9599.1805650000006</v>
       </c>
       <c r="F68">
         <v>0.15</v>
@@ -2789,19 +2854,19 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69">
         <v>21</v>
       </c>
       <c r="C69">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E69">
-        <v>5229.9100630000003</v>
+        <v>5075.697193</v>
       </c>
       <c r="F69">
         <v>0.15</v>
@@ -2812,19 +2877,19 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>21</v>
       </c>
       <c r="C70">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E70">
-        <v>5000</v>
+        <v>5229.9100630000003</v>
       </c>
       <c r="F70">
         <v>0.15</v>
@@ -2835,19 +2900,19 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71">
+        <v>21</v>
+      </c>
+      <c r="C71">
         <v>22</v>
       </c>
-      <c r="C71">
-        <v>13</v>
-      </c>
       <c r="D71">
         <v>4</v>
       </c>
       <c r="E71">
-        <v>4924.7906050000001</v>
+        <v>5000</v>
       </c>
       <c r="F71">
         <v>0.15</v>
@@ -2858,19 +2923,19 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>22</v>
       </c>
       <c r="C72">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D72">
         <v>4</v>
       </c>
       <c r="E72">
-        <v>5000</v>
+        <v>4924.7906050000001</v>
       </c>
       <c r="F72">
         <v>0.15</v>
@@ -2881,19 +2946,19 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>22</v>
       </c>
       <c r="C73">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E73">
-        <v>5078.5084360000001</v>
+        <v>5000</v>
       </c>
       <c r="F73">
         <v>0.15</v>
@@ -2904,19 +2969,19 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74">
+        <v>22</v>
+      </c>
+      <c r="C74">
         <v>23</v>
       </c>
-      <c r="C74">
-        <v>12</v>
-      </c>
       <c r="D74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E74">
-        <v>5091.2561519999999</v>
+        <v>5078.5084360000001</v>
       </c>
       <c r="F74">
         <v>0.15</v>
@@ -2927,19 +2992,19 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>23</v>
       </c>
       <c r="C75">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E75">
-        <v>4885.3575639999999</v>
+        <v>5091.2561519999999</v>
       </c>
       <c r="F75">
         <v>0.15</v>
@@ -2949,22 +3014,48 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
       <c r="B76">
         <v>23</v>
       </c>
       <c r="C76">
+        <v>20</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>4885.3575639999999</v>
+      </c>
+      <c r="F76">
+        <v>0.15</v>
+      </c>
+      <c r="G76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>23</v>
+      </c>
+      <c r="C77">
         <v>22</v>
       </c>
-      <c r="D76">
-        <v>2</v>
-      </c>
-      <c r="E76">
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
         <v>5078.5084360000001</v>
       </c>
-      <c r="F76">
-        <v>0.15</v>
-      </c>
-      <c r="G76">
+      <c r="F77">
+        <v>0.15</v>
+      </c>
+      <c r="G77">
         <v>4</v>
       </c>
     </row>
@@ -2977,7 +3068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G12"/>
     </sheetView>
   </sheetViews>
